--- a/输出.xlsx
+++ b/输出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32080" windowHeight="5660" activeTab="1"/>
+    <workbookView windowWidth="19120" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="15" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
@@ -2568,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
@@ -5148,7 +5148,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
@@ -6851,7 +6851,7 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
